--- a/median_income_county_2000.xlsx
+++ b/median_income_county_2000.xlsx
@@ -1,43 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcclary\Documents\GitHub\Demographics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C78D0-26ED-440A-98A5-E4C4FBD30802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+  <si>
+    <t>variable_category</t>
+  </si>
+  <si>
+    <t>year_sample</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>level_0</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>variable_code</t>
+  </si>
+  <si>
+    <t>variable_name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>cumulative_sum</t>
+  </si>
+  <si>
+    <t>TotalSum</t>
+  </si>
+  <si>
+    <t>previous_cumulative</t>
+  </si>
+  <si>
+    <t>cumulative_difference</t>
+  </si>
+  <si>
+    <t>interpolation_ratio</t>
+  </si>
+  <si>
+    <t>median_value</t>
+  </si>
+  <si>
+    <t>Household Income</t>
+  </si>
+  <si>
+    <t>dec/sf3</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>P052011</t>
+  </si>
+  <si>
+    <t>$50,000 to $59,999</t>
+  </si>
+  <si>
+    <t>['50000', '59999']</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>P052009</t>
+  </si>
+  <si>
+    <t>$40,000 to $44,999</t>
+  </si>
+  <si>
+    <t>['40000', '44999']</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>P052012</t>
+  </si>
+  <si>
+    <t>$60,000 to $74,999</t>
+  </si>
+  <si>
+    <t>['60000', '74999']</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>P052010</t>
+  </si>
+  <si>
+    <t>$45,000 to $49,999</t>
+  </si>
+  <si>
+    <t>['45000', '49999']</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Douglas County (Tahoe Basin)</t>
+  </si>
+  <si>
+    <t>El Dorado County (Tahoe Basin)</t>
+  </si>
+  <si>
+    <t>Washoe County (Tahoe Basin)</t>
+  </si>
+  <si>
+    <t>Placer County (Tahoe Basin)</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +196,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,393 +534,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>variable_category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>year_sample</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dataset</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>county</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>level_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>variable_code</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>variable_name</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>temp</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Lower</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>cumulative_sum</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>TotalSum</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>previous_cumulative</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>cumulative_difference</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>interpolation_ratio</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>median_value</t>
-        </is>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Household Income</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>2000</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>dec/sf3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <v>36</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>464</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>P052011</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>$50,000 to $59,999</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
         <v>262</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['50000', '59999']</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2">
         <v>50000</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>59999</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>1688</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>3042</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>1426</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>95</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.3625954198473282</v>
-      </c>
-      <c r="S2" t="n">
-        <v>53625.59160305344</v>
+      <c r="R2">
+        <v>0.36259541984732818</v>
+      </c>
+      <c r="S2">
+        <v>53625.591603053443</v>
+      </c>
+      <c r="T2">
+        <f>S2*1.57</f>
+        <v>84192.178816793908</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Household Income</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>2000</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>dec/sf3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>017</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
         <v>31</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>457</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>P052009</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>$40,000 to $44,999</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3">
         <v>967</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['40000', '44999']</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3">
         <v>40000</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>44999</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>7586</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>13493</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>6619</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>127.5</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>0.1318510858324716</v>
       </c>
-      <c r="S3" t="n">
-        <v>40659.12357807653</v>
+      <c r="S3">
+        <v>40659.123578076527</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T5" si="0">S3*1.57</f>
+        <v>63834.824017580147</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Household Income</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
         <v>2000</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>dec/sf3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>031</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
         <v>42</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>470</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>P052012</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>$60,000 to $74,999</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
         <v>451</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['60000', '74999']</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4">
         <v>60000</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>74999</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>2250</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>4173</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>1799</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>287.5</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.6374722838137472</v>
-      </c>
-      <c r="S4" t="n">
-        <v>69561.44678492239</v>
+      <c r="R4">
+        <v>0.63747228381374721</v>
+      </c>
+      <c r="S4">
+        <v>69561.446784922387</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>109211.47145232816</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Household Income</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>2000</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>dec/sf3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>061</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
         <v>35</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>463</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>P052010</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>$45,000 to $49,999</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
         <v>198</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['45000', '49999']</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5">
         <v>45000</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>49999</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>2450</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>4798</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>2252</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>147</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.7424242424242424</v>
-      </c>
-      <c r="S5" t="n">
-        <v>48711.37878787878</v>
+      <c r="R5">
+        <v>0.74242424242424243</v>
+      </c>
+      <c r="S5">
+        <v>48711.378787878777</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>76476.864696969686</v>
+      </c>
+      <c r="U5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
